--- a/APM files/138591414/138591414 IMPORT 6 Compensation.xlsx
+++ b/APM files/138591414/138591414 IMPORT 6 Compensation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4A608D-FDA4-EB40-B2F4-401FAC9E29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C30496-C800-634E-A620-9AA7D5DF6163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Action Type</t>
   </si>
   <si>
-    <t>Dream Inn 18% Merchant</t>
-  </si>
-  <si>
     <t>115150254</t>
   </si>
   <si>
@@ -82,13 +79,16 @@
   </si>
   <si>
     <t>115150262</t>
+  </si>
+  <si>
+    <t>Barsala_EC_18%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -137,6 +144,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +464,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -492,7 +500,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -500,8 +508,8 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -512,7 +520,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -520,8 +528,8 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -532,7 +540,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -540,8 +548,8 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -552,7 +560,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -560,8 +568,8 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -572,7 +580,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -580,8 +588,8 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -592,7 +600,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -600,8 +608,8 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
